--- a/Code/Results/Cases/Case_4_61/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_61/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -444,8 +447,11 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -482,8 +488,11 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -520,8 +529,11 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -558,8 +570,11 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -596,8 +611,11 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -634,8 +652,11 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -672,8 +693,11 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -710,8 +734,11 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -748,8 +775,11 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -786,8 +816,11 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -824,8 +857,11 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -862,8 +898,11 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -900,8 +939,11 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -938,8 +980,11 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -976,8 +1021,11 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1014,8 +1062,11 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1052,8 +1103,11 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1090,8 +1144,11 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1128,8 +1185,11 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1166,8 +1226,11 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1204,8 +1267,11 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1242,8 +1308,11 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1280,8 +1349,11 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1316,6 +1388,9 @@
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_61/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_61/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>3.949261591438528</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1.14266346891597</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.2164912477602456</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1.515947477391109</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007364779275341244</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -450,28 +456,34 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>9.125539011078672</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>3.3378372856738</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.9608274373236725</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.1843355579557482</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1.275979210182442</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007528869193665163</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -491,28 +503,34 @@
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>7.855077628008189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>2.979686071061394</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.8548175219180223</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.1653728803704695</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1.136147181077874</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0007629643567761094</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -532,28 +550,34 @@
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>7.107582711065419</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>2.837266377448543</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.8127565152026648</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.157805846964763</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1.080673051072367</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0007670842970182168</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -573,28 +597,34 @@
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>6.809622735983282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>2.813809982791383</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.8058339544328703</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.1565581022443467</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1.071543035783421</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0007677695423811137</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -614,28 +644,34 @@
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>6.760508498434916</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>2.977752020200569</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.8542459906904867</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.1652702221524294</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1.13539337650468</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0007630198507088457</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -655,28 +691,34 @@
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>7.103539227334181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>3.734317985092559</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1.07860972412027</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.2052179991820964</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1.431392933407054</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007421437526802894</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -696,28 +738,34 @@
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>8.679700380614264</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>5.402649829049665</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1.579867850609787</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.2918381749634449</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>2.094217361564446</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007004784618260564</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -737,28 +785,34 @@
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>12.11866774236944</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>6.835034763098122</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>2.018517549575733</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.3645620680721038</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>2.677675374846928</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0006679603723382605</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -778,28 +832,34 @@
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>15.03216567488545</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>7.566185964226804</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>2.245702570000219</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.4010683342201276</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>2.981809888400747</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0006522156977460113</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -819,28 +879,34 @@
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>16.50500722754288</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>7.85927584749362</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>2.337432327030967</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.4155805856493942</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>3.10508718313001</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0006460425824604492</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -860,28 +926,34 @@
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>17.09259299263795</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>7.795328677437112</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>2.317385520563448</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.4124203099086543</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>3.078120294741908</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0006473830626797244</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -901,28 +973,34 @@
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>16.96453174079227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>7.589937285142753</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>2.253121818165141</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.4022470030558907</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>2.991769806747953</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0006517126224354027</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -942,28 +1020,34 @@
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>16.55268464291066</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>7.466424708585578</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>2.214567271421402</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.3961126146484304</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>2.940032777110531</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0006543342885545478</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -983,28 +1067,34 @@
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>16.30463425020855</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>6.7892107171823</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>2.004355338181711</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.3622599263541559</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>2.658766687219455</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0006689646269905867</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1024,28 +1114,34 @@
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>14.93952847417756</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>6.39687830467733</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1.883460851075654</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>0.3424826490813899</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>2.497568317706524</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0006776535654323131</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1065,28 +1161,34 @@
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>14.14483566829887</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>6.178327858974797</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1.816389862117035</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.3314141335704619</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>2.40829150554039</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0006825674746937938</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1106,28 +1208,34 @@
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>13.70094767711342</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>6.105440134855883</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1.794064149634096</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>0.3277146154154025</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>2.378596899212596</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0006842185807010043</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1147,28 +1255,34 @@
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>13.55271915952125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>6.437879481763218</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1.896065342788916</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>0.3445550761779543</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>2.514357734478992</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0006767377061968348</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1188,28 +1302,34 @@
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>14.22801600430088</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>7.649774996977044</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>2.271824585332581</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.4052144256716446</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>3.01688559098865</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0006504474344511725</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1229,28 +1349,34 @@
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>16.67275299104176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>8.540777755423505</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>2.552244945696202</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.4490466329314131</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>3.395034842430903</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0006319670138236987</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1270,28 +1396,34 @@
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>18.45243885276943</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>8.053842934703255</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>2.398541581109328</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.4251751498262877</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>3.187383522377957</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0006419853585887856</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1311,28 +1443,34 @@
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>17.48175070567504</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>6.419321347040011</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1.890359389997514</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>0.3436172053981608</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>2.506756823457451</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0006771520150266116</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1352,28 +1490,34 @@
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>14.19037029247102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>4.923651829821722</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1.434951832043794</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>0.2671759237082654</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1.902272479515872</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007119509711203056</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1392,6 +1536,12 @@
       </c>
       <c r="M25">
         <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>11.13630434231411</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_61/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_61/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.949261591438528</v>
+        <v>2.452172610414323</v>
       </c>
       <c r="C2">
-        <v>1.14266346891597</v>
+        <v>0.7047499624571572</v>
       </c>
       <c r="D2">
-        <v>0.2164912477602456</v>
+        <v>0.3704822337298452</v>
       </c>
       <c r="E2">
-        <v>1.515947477391109</v>
+        <v>0.1145905611661711</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0007364779275341244</v>
+        <v>0.0008028448053188415</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.3101970938633052</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.03974867347702116</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.7879163333591492</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>9.125539011078672</v>
+        <v>2.246639330432572</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.3378372856738</v>
+        <v>2.130059419176234</v>
       </c>
       <c r="C3">
-        <v>0.9608274373236725</v>
+        <v>0.6120964804112248</v>
       </c>
       <c r="D3">
-        <v>0.1843355579557482</v>
+        <v>0.3427203123334266</v>
       </c>
       <c r="E3">
-        <v>1.275979210182442</v>
+        <v>0.1085654384089345</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0007528869193665163</v>
+        <v>0.0008081628197455254</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.3175475243796946</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.03960940784062927</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.6872051601485651</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>7.855077628008189</v>
+        <v>2.15781039040877</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.979686071061394</v>
+        <v>1.932867851796146</v>
       </c>
       <c r="C4">
-        <v>0.8548175219180223</v>
+        <v>0.5554070442447596</v>
       </c>
       <c r="D4">
-        <v>0.1653728803704695</v>
+        <v>0.3262353177282904</v>
       </c>
       <c r="E4">
-        <v>1.136147181077874</v>
+        <v>0.1050669772729158</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0007629643567761094</v>
+        <v>0.0008115290506073098</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.3232259718935211</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.03960742637221415</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.6258103045135641</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>7.107582711065419</v>
+        <v>2.109764689238773</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.837266377448543</v>
+        <v>1.852619751920287</v>
       </c>
       <c r="C5">
-        <v>0.8127565152026648</v>
+        <v>0.5323434475639033</v>
       </c>
       <c r="D5">
-        <v>0.157805846964763</v>
+        <v>0.3196491830164803</v>
       </c>
       <c r="E5">
-        <v>1.080673051072367</v>
+        <v>0.1036888960282916</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0007670842970182168</v>
+        <v>0.0008129268495947408</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.3258181614629585</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.03962664645803926</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.6008868240327203</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>6.809622735983282</v>
+        <v>2.091719414343686</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.813809982791383</v>
+        <v>1.839300126449615</v>
       </c>
       <c r="C6">
-        <v>0.8058339544328703</v>
+        <v>0.5285156890762437</v>
       </c>
       <c r="D6">
-        <v>0.1565581022443467</v>
+        <v>0.3185632462973018</v>
       </c>
       <c r="E6">
-        <v>1.071543035783421</v>
+        <v>0.1034628563773694</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0007677695423811137</v>
+        <v>0.0008131605436791581</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.3262649762749419</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.0396310201340615</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.5967536211190705</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>6.760508498434916</v>
+        <v>2.088812843782677</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.977752020200569</v>
+        <v>1.931785205318818</v>
       </c>
       <c r="C7">
-        <v>0.8542459906904867</v>
+        <v>0.5550958633447181</v>
       </c>
       <c r="D7">
-        <v>0.1652702221524294</v>
+        <v>0.3261459738583454</v>
       </c>
       <c r="E7">
-        <v>1.13539337650468</v>
+        <v>0.1050482031718474</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0007630198507088457</v>
+        <v>0.0008115477955269247</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.3232598237191766</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.03960760573690436</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.6254738114695968</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>7.103539227334181</v>
+        <v>2.109515241639144</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.734317985092559</v>
+        <v>2.340961924762667</v>
       </c>
       <c r="C8">
-        <v>1.07860972412027</v>
+        <v>0.672753649697313</v>
       </c>
       <c r="D8">
-        <v>0.2052179991820964</v>
+        <v>0.360787641962105</v>
       </c>
       <c r="E8">
-        <v>1.431392933407054</v>
+        <v>0.1124695368944266</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0007421437526802894</v>
+        <v>0.0008046579068837814</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.3124804704318258</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.03968271171914495</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.7530894832832971</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>8.679700380614264</v>
+        <v>2.214601050143926</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.402649829049665</v>
+        <v>3.149937716989541</v>
       </c>
       <c r="C9">
-        <v>1.579867850609787</v>
+        <v>0.9056915678531823</v>
       </c>
       <c r="D9">
-        <v>0.2918381749634449</v>
+        <v>0.4336296004986195</v>
       </c>
       <c r="E9">
-        <v>2.094217361564446</v>
+        <v>0.1287619405710743</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007004784618260564</v>
+        <v>0.0007919164567890248</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.3013032397833904</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.04054007400264581</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.007631588269668</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>12.11866774236944</v>
+        <v>2.477040856911856</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.835034763098122</v>
+        <v>3.751263964623888</v>
       </c>
       <c r="C10">
-        <v>2.018517549575733</v>
+        <v>1.079138574621766</v>
       </c>
       <c r="D10">
-        <v>0.3645620680721038</v>
+        <v>0.4908337070565949</v>
       </c>
       <c r="E10">
-        <v>2.677675374846928</v>
+        <v>0.1420102725406984</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0006679603723382605</v>
+        <v>0.0007829773858636351</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.3002354833706882</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.04167413723386559</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.198450451097841</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>15.03216567488545</v>
+        <v>2.711482775304376</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.566185964226804</v>
+        <v>4.027066878692267</v>
       </c>
       <c r="C11">
-        <v>2.245702570000219</v>
+        <v>1.158782725478318</v>
       </c>
       <c r="D11">
-        <v>0.4010683342201276</v>
+        <v>0.5178278131031107</v>
       </c>
       <c r="E11">
-        <v>2.981809888400747</v>
+        <v>0.1483682397934381</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0006522156977460113</v>
+        <v>0.0007789910355307071</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.3015627711158686</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.04231701281925382</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.286379117116596</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.50500722754288</v>
+        <v>2.828954181862201</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.85927584749362</v>
+        <v>4.131896905606595</v>
       </c>
       <c r="C12">
-        <v>2.337432327030967</v>
+        <v>1.189070287303593</v>
       </c>
       <c r="D12">
-        <v>0.4155805856493942</v>
+        <v>0.5282050315317974</v>
       </c>
       <c r="E12">
-        <v>3.10508718313001</v>
+        <v>0.1508283628182951</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0006460425824604492</v>
+        <v>0.0007774919980121383</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.3023502338730708</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.04258032804736089</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.319863786019127</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>17.09259299263795</v>
+        <v>2.875157596118527</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.795328677437112</v>
+        <v>4.109301462336532</v>
       </c>
       <c r="C13">
-        <v>2.317385520563448</v>
+        <v>1.182541261932101</v>
       </c>
       <c r="D13">
-        <v>0.4124203099086543</v>
+        <v>0.5259629514688129</v>
       </c>
       <c r="E13">
-        <v>3.078120294741908</v>
+        <v>0.1502961140469559</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0006473830626797244</v>
+        <v>0.000777814392281156</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.3021675627997169</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.04252270727572594</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.312643456393673</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.96453174079227</v>
+        <v>2.865127623471579</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.589937285142753</v>
+        <v>4.03568310892615</v>
       </c>
       <c r="C14">
-        <v>2.253121818165141</v>
+        <v>1.161271805523256</v>
       </c>
       <c r="D14">
-        <v>0.4022470030558907</v>
+        <v>0.5186783505998847</v>
       </c>
       <c r="E14">
-        <v>2.991769806747953</v>
+        <v>0.1485695539481569</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0006517126224354027</v>
+        <v>0.0007788675042867325</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.3016217012011992</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.04233826787645967</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.289129993626531</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>16.55268464291066</v>
+        <v>2.83271991279787</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.466424708585578</v>
+        <v>3.9906424921395</v>
       </c>
       <c r="C15">
-        <v>2.214567271421402</v>
+        <v>1.148260993559745</v>
       </c>
       <c r="D15">
-        <v>0.3961126146484304</v>
+        <v>0.5142370071264963</v>
       </c>
       <c r="E15">
-        <v>2.940032777110531</v>
+        <v>0.1475189750783557</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0006543342885545478</v>
+        <v>0.0007795139027204903</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.3013251949451217</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.04222793179814843</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.274752624703851</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>16.30463425020855</v>
+        <v>2.813098294415283</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.7892107171823</v>
+        <v>3.733290418579088</v>
       </c>
       <c r="C16">
-        <v>2.004355338181711</v>
+        <v>1.073950353284999</v>
       </c>
       <c r="D16">
-        <v>0.3622599263541559</v>
+        <v>0.4890904169025703</v>
       </c>
       <c r="E16">
-        <v>2.658766687219455</v>
+        <v>0.1416018357393583</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0006689646269905867</v>
+        <v>0.0007832394303877168</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.3001872384168216</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.04163481345450393</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.192728923081518</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.93952847417756</v>
+        <v>2.704037137196877</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.39687830467733</v>
+        <v>3.576035553179338</v>
       </c>
       <c r="C17">
-        <v>1.883460851075654</v>
+        <v>1.028567815133329</v>
       </c>
       <c r="D17">
-        <v>0.3424826490813899</v>
+        <v>0.4739231978738871</v>
       </c>
       <c r="E17">
-        <v>2.497568317706524</v>
+        <v>0.1380600251713204</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0006776535654323131</v>
+        <v>0.0007855447399893838</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.2999699940321321</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.04130457885595717</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.142715948232492</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.14483566829887</v>
+        <v>2.640015093828964</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.178327858974797</v>
+        <v>3.485794878893103</v>
       </c>
       <c r="C18">
-        <v>1.816389862117035</v>
+        <v>1.002533448817445</v>
       </c>
       <c r="D18">
-        <v>0.3314141335704619</v>
+        <v>0.4652898709464921</v>
       </c>
       <c r="E18">
-        <v>2.40829150554039</v>
+        <v>0.1360537301887454</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0006825674746937938</v>
+        <v>0.0007868782955884631</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.3000141219594816</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.04112648405835984</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.114053907397896</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>13.70094767711342</v>
+        <v>2.604199359975553</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.105440134855883</v>
+        <v>3.455274808374782</v>
       </c>
       <c r="C19">
-        <v>1.794064149634096</v>
+        <v>0.9937298030399973</v>
       </c>
       <c r="D19">
-        <v>0.3277146154154025</v>
+        <v>0.4623818636890746</v>
       </c>
       <c r="E19">
-        <v>2.378596899212596</v>
+        <v>0.135379592381863</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0006842185807010043</v>
+        <v>0.0007873311496526802</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.3000574023864502</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.04106817231721394</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.104366549293196</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.55271915952125</v>
+        <v>2.592241168481621</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.437879481763218</v>
+        <v>3.592753606513099</v>
       </c>
       <c r="C20">
-        <v>1.896065342788916</v>
+        <v>1.033391629601965</v>
       </c>
       <c r="D20">
-        <v>0.3445550761779543</v>
+        <v>0.4755283051537731</v>
       </c>
       <c r="E20">
-        <v>2.514357734478992</v>
+        <v>0.1384338291291449</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0006767377061968348</v>
+        <v>0.0007852985559880472</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.2999754528854695</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.04133849552959745</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.148028957936745</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.22801600430088</v>
+        <v>2.646724885020973</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.649774996977044</v>
+        <v>4.057295486012833</v>
       </c>
       <c r="C21">
-        <v>2.271824585332581</v>
+        <v>1.167515504891128</v>
       </c>
       <c r="D21">
-        <v>0.4052144256716446</v>
+        <v>0.5208136742085117</v>
       </c>
       <c r="E21">
-        <v>3.01688559098865</v>
+        <v>0.1490752206592028</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0006504474344511725</v>
+        <v>0.0007785579030496024</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.3017740998910483</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.04239188926870696</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.29603114332032</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>16.67275299104176</v>
+        <v>2.842190798097846</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.540777755423505</v>
+        <v>4.363205160868404</v>
       </c>
       <c r="C22">
-        <v>2.552244945696202</v>
+        <v>1.255931029260125</v>
       </c>
       <c r="D22">
-        <v>0.4490466329314131</v>
+        <v>0.5513227392706028</v>
       </c>
       <c r="E22">
-        <v>3.395034842430903</v>
+        <v>0.1563385821697665</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0006319670138236987</v>
+        <v>0.0007742132063206619</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.3046227782026989</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.04319703442741485</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.393868950827766</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>18.45243885276943</v>
+        <v>2.980048962644446</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.053842934703255</v>
+        <v>4.199701428309197</v>
       </c>
       <c r="C23">
-        <v>2.398541581109328</v>
+        <v>1.208665057989549</v>
       </c>
       <c r="D23">
-        <v>0.4251751498262877</v>
+        <v>0.5349505159228727</v>
       </c>
       <c r="E23">
-        <v>3.187383522377957</v>
+        <v>0.1524320239996619</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0006419853585887856</v>
+        <v>0.0007765268541487603</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.3029407231611074</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.04275606276277699</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.341540157731202</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.48175070567504</v>
+        <v>2.905488394942438</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.419321347040011</v>
+        <v>3.585194858511954</v>
       </c>
       <c r="C24">
-        <v>1.890359389997514</v>
+        <v>1.031210608184949</v>
       </c>
       <c r="D24">
-        <v>0.3436172053981608</v>
+        <v>0.4748023678428979</v>
       </c>
       <c r="E24">
-        <v>2.506756823457451</v>
+        <v>0.1382647394687062</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0006771520150266116</v>
+        <v>0.0007854098301466183</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.2999724602619374</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.0413231252870645</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.145626664501037</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.19037029247102</v>
+        <v>2.643688312616234</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.923651829821722</v>
+        <v>2.930093493108529</v>
       </c>
       <c r="C25">
-        <v>1.434951832043794</v>
+        <v>0.8423449925237492</v>
       </c>
       <c r="D25">
-        <v>0.2671759237082654</v>
+        <v>0.4133300467903496</v>
       </c>
       <c r="E25">
-        <v>1.902272479515872</v>
+        <v>0.1241467836920656</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007119509711203056</v>
+        <v>0.0007952856211379296</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.3031551625571325</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.04022511586681432</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.9381950791748253</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>11.13630434231411</v>
+        <v>2.399295368538702</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_61/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_61/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.452172610414323</v>
+        <v>0.972438577363846</v>
       </c>
       <c r="C2">
-        <v>0.7047499624571572</v>
+        <v>0.2623415173089541</v>
       </c>
       <c r="D2">
-        <v>0.3704822337298452</v>
+        <v>0.5882220620855207</v>
       </c>
       <c r="E2">
-        <v>0.1145905611661711</v>
+        <v>0.2184013329535901</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008028448053188415</v>
+        <v>0.002473343836612459</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3101970938633052</v>
+        <v>0.740465206117733</v>
       </c>
       <c r="J2">
-        <v>0.03974867347702116</v>
+        <v>0.09951159869620341</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.7879163333591492</v>
+        <v>0.4923926705346986</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.246639330432572</v>
+        <v>4.066081606316061</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.130059419176234</v>
+        <v>0.8753874355857079</v>
       </c>
       <c r="C3">
-        <v>0.6120964804112248</v>
+        <v>0.2346213734578271</v>
       </c>
       <c r="D3">
-        <v>0.3427203123334266</v>
+        <v>0.585045878658164</v>
       </c>
       <c r="E3">
-        <v>0.1085654384089345</v>
+        <v>0.2184604951824554</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008081628197455254</v>
+        <v>0.002476804055579263</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3175475243796946</v>
+        <v>0.750562122363128</v>
       </c>
       <c r="J3">
-        <v>0.03960940784062927</v>
+        <v>0.1002439673492326</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6872051601485651</v>
+        <v>0.465046541074571</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.15781039040877</v>
+        <v>4.085892049871745</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.932867851796146</v>
+        <v>0.8158348109444375</v>
       </c>
       <c r="C4">
-        <v>0.5554070442447596</v>
+        <v>0.2176024792912301</v>
       </c>
       <c r="D4">
-        <v>0.3262353177282904</v>
+        <v>0.5833877914308232</v>
       </c>
       <c r="E4">
-        <v>0.1050669772729158</v>
+        <v>0.2186047646559146</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008115290506073098</v>
+        <v>0.002479041684627488</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.3232259718935211</v>
+        <v>0.7572949739284702</v>
       </c>
       <c r="J4">
-        <v>0.03960742637221415</v>
+        <v>0.1007405330698994</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6258103045135641</v>
+        <v>0.4484092753337805</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.109764689238773</v>
+        <v>4.10093991790734</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.852619751920287</v>
+        <v>0.7915772034498048</v>
       </c>
       <c r="C5">
-        <v>0.5323434475639033</v>
+        <v>0.2106677657038745</v>
       </c>
       <c r="D5">
-        <v>0.3196491830164803</v>
+        <v>0.5827855856817621</v>
       </c>
       <c r="E5">
-        <v>0.1036888960282916</v>
+        <v>0.2186906979776602</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008129268495947408</v>
+        <v>0.002479982050146767</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.3258181614629585</v>
+        <v>0.7601725124401355</v>
       </c>
       <c r="J5">
-        <v>0.03962664645803926</v>
+        <v>0.1009546732079603</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6008868240327203</v>
+        <v>0.441668304562377</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.091719414343686</v>
+        <v>4.107795947460971</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.839300126449615</v>
+        <v>0.7875499210352928</v>
       </c>
       <c r="C6">
-        <v>0.5285156890762437</v>
+        <v>0.2095163076937183</v>
       </c>
       <c r="D6">
-        <v>0.3185632462973018</v>
+        <v>0.5826900286028831</v>
       </c>
       <c r="E6">
-        <v>0.1034628563773694</v>
+        <v>0.2187066064519385</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008131605436791581</v>
+        <v>0.002480139922012993</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3262649762749419</v>
+        <v>0.7606584020137603</v>
       </c>
       <c r="J6">
-        <v>0.0396310201340615</v>
+        <v>0.1009909426932083</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5967536211190705</v>
+        <v>0.4405513264270553</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.088812843782677</v>
+        <v>4.108978068362887</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.931785205318818</v>
+        <v>0.815507619931509</v>
       </c>
       <c r="C7">
-        <v>0.5550958633447181</v>
+        <v>0.2175089524218663</v>
       </c>
       <c r="D7">
-        <v>0.3261459738583454</v>
+        <v>0.5833793723252683</v>
       </c>
       <c r="E7">
-        <v>0.1050482031718474</v>
+        <v>0.2186058136855067</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008115477955269247</v>
+        <v>0.002479054251062564</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.3232598237191766</v>
+        <v>0.7573332398225574</v>
       </c>
       <c r="J7">
-        <v>0.03960760573690436</v>
+        <v>0.1007433733261394</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6254738114695968</v>
+        <v>0.4483182065613107</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.109515241639144</v>
+        <v>4.101029451475853</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.340961924762667</v>
+        <v>0.9389683286097465</v>
       </c>
       <c r="C8">
-        <v>0.672753649697313</v>
+        <v>0.2527834793545765</v>
       </c>
       <c r="D8">
-        <v>0.360787641962105</v>
+        <v>0.5870663015025457</v>
       </c>
       <c r="E8">
-        <v>0.1124695368944266</v>
+        <v>0.2183993271818743</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008046579068837814</v>
+        <v>0.002474513512016838</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3124804704318258</v>
+        <v>0.7438357816711907</v>
       </c>
       <c r="J8">
-        <v>0.03968271171914495</v>
+        <v>0.09975438472355691</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.7530894832832971</v>
+        <v>0.482932053651318</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.214601050143926</v>
+        <v>4.072312818256052</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.149937716989541</v>
+        <v>1.181328301003816</v>
       </c>
       <c r="C9">
-        <v>0.9056915678531823</v>
+        <v>0.3219592485391445</v>
       </c>
       <c r="D9">
-        <v>0.4336296004986195</v>
+        <v>0.5966140459414646</v>
       </c>
       <c r="E9">
-        <v>0.1287619405710743</v>
+        <v>0.218851209818645</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007919164567890248</v>
+        <v>0.00246650201217051</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3013032397833904</v>
+        <v>0.7216102846072197</v>
       </c>
       <c r="J9">
-        <v>0.04054007400264581</v>
+        <v>0.09818726704788361</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.007631588269668</v>
+        <v>0.5520180603939622</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.477040856911856</v>
+        <v>4.0389486988756</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.751263964623888</v>
+        <v>1.359508651215492</v>
       </c>
       <c r="C10">
-        <v>1.079138574621766</v>
+        <v>0.3727782026186333</v>
       </c>
       <c r="D10">
-        <v>0.4908337070565949</v>
+        <v>0.6050434095509161</v>
       </c>
       <c r="E10">
-        <v>0.1420102725406984</v>
+        <v>0.2197063751221613</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007829773858636351</v>
+        <v>0.002461154604383175</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.3002354833706882</v>
+        <v>0.7078834984591289</v>
       </c>
       <c r="J10">
-        <v>0.04167413723386559</v>
+        <v>0.09726324313883339</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.198450451097841</v>
+        <v>0.6035065312700283</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.711482775304376</v>
+        <v>4.02852101812482</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.027066878692267</v>
+        <v>1.440586952492538</v>
       </c>
       <c r="C11">
-        <v>1.158782725478318</v>
+        <v>0.3958952109169331</v>
       </c>
       <c r="D11">
-        <v>0.5178278131031107</v>
+        <v>0.6091858181078749</v>
       </c>
       <c r="E11">
-        <v>0.1483682397934381</v>
+        <v>0.2202092254044565</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007789910355307071</v>
+        <v>0.00245883768083648</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3015627711158686</v>
+        <v>0.7022072654228069</v>
       </c>
       <c r="J11">
-        <v>0.04231701281925382</v>
+        <v>0.0968923332169318</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.286379117116596</v>
+        <v>0.6270879265664604</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.828954181862201</v>
+        <v>4.026856362535824</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.131896905606595</v>
+        <v>1.471291614716904</v>
       </c>
       <c r="C12">
-        <v>1.189070287303593</v>
+        <v>0.4046487223262147</v>
       </c>
       <c r="D12">
-        <v>0.5282050315317974</v>
+        <v>0.6107987180110115</v>
       </c>
       <c r="E12">
-        <v>0.1508283628182951</v>
+        <v>0.2204160215108324</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007774919980121383</v>
+        <v>0.00245797685947372</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.3023502338730708</v>
+        <v>0.70013980947585</v>
       </c>
       <c r="J12">
-        <v>0.04258032804736089</v>
+        <v>0.09675899517979758</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.319863786019127</v>
+        <v>0.6360402711756308</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.875157596118527</v>
+        <v>4.026670355924523</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.109301462336532</v>
+        <v>1.464678744214041</v>
       </c>
       <c r="C13">
-        <v>1.182541261932101</v>
+        <v>0.4027635192024945</v>
       </c>
       <c r="D13">
-        <v>0.5259629514688129</v>
+        <v>0.6104493828230773</v>
       </c>
       <c r="E13">
-        <v>0.1502961140469559</v>
+        <v>0.2203707557266874</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.000777814392281156</v>
+        <v>0.002458161518058708</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.3021675627997169</v>
+        <v>0.7005814207184002</v>
       </c>
       <c r="J13">
-        <v>0.04252270727572594</v>
+        <v>0.09678739521302049</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.312643456393673</v>
+        <v>0.634111223761451</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.865127623471579</v>
+        <v>4.026690626921408</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.03568310892615</v>
+        <v>1.44311300923124</v>
       </c>
       <c r="C14">
-        <v>1.161271805523256</v>
+        <v>0.3966153771555696</v>
       </c>
       <c r="D14">
-        <v>0.5186783505998847</v>
+        <v>0.6093176253701529</v>
       </c>
       <c r="E14">
-        <v>0.1485695539481569</v>
+        <v>0.22022591036108</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007788675042867325</v>
+        <v>0.002458766529564707</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.3016217012011992</v>
+        <v>0.7020355291866309</v>
       </c>
       <c r="J14">
-        <v>0.04233826787645967</v>
+        <v>0.0968812207189309</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.289129993626531</v>
+        <v>0.6278239903942193</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.83271991279787</v>
+        <v>4.026832144727848</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.9906424921395</v>
+        <v>1.429903606161304</v>
       </c>
       <c r="C15">
-        <v>1.148260993559745</v>
+        <v>0.392849402443801</v>
       </c>
       <c r="D15">
-        <v>0.5142370071264963</v>
+        <v>0.608630154930637</v>
       </c>
       <c r="E15">
-        <v>0.1475189750783557</v>
+        <v>0.2201393215088707</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007795139027204903</v>
+        <v>0.002459139268900377</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.3013251949451217</v>
+        <v>0.7029369020082541</v>
       </c>
       <c r="J15">
-        <v>0.04222793179814843</v>
+        <v>0.09693961873027135</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.274752624703851</v>
+        <v>0.6239758108299611</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.813098294415283</v>
+        <v>4.026976745484546</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.733290418579088</v>
+        <v>1.354210351425536</v>
       </c>
       <c r="C16">
-        <v>1.073950353284999</v>
+        <v>0.3712674114615311</v>
       </c>
       <c r="D16">
-        <v>0.4890904169025703</v>
+        <v>0.6047788873554225</v>
       </c>
       <c r="E16">
-        <v>0.1416018357393583</v>
+        <v>0.2196758039965765</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007832394303877168</v>
+        <v>0.002461308340735313</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.3001872384168216</v>
+        <v>0.7082659128524291</v>
       </c>
       <c r="J16">
-        <v>0.04163481345450393</v>
+        <v>0.09728847846826127</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.192728923081518</v>
+        <v>0.6019686071547028</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.704037137196877</v>
+        <v>4.028691901449889</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.576035553179338</v>
+        <v>1.307780021232304</v>
       </c>
       <c r="C17">
-        <v>1.028567815133329</v>
+        <v>0.3580271530907453</v>
       </c>
       <c r="D17">
-        <v>0.4739231978738871</v>
+        <v>0.6024951004513355</v>
       </c>
       <c r="E17">
-        <v>0.1380600251713204</v>
+        <v>0.2194206121136659</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007855447399893838</v>
+        <v>0.002462668555780089</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.2999699940321321</v>
+        <v>0.7116808265507686</v>
       </c>
       <c r="J17">
-        <v>0.04130457885595717</v>
+        <v>0.09751516005171723</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.142715948232492</v>
+        <v>0.5885084270271363</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.640015093828964</v>
+        <v>4.030533833824819</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.485794878893103</v>
+        <v>1.281076778199292</v>
       </c>
       <c r="C18">
-        <v>1.002533448817445</v>
+        <v>0.350411649137925</v>
       </c>
       <c r="D18">
-        <v>0.4652898709464921</v>
+        <v>0.6012105032647526</v>
       </c>
       <c r="E18">
-        <v>0.1360537301887454</v>
+        <v>0.219284546286076</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007868782955884631</v>
+        <v>0.002463461804783126</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3000141219594816</v>
+        <v>0.713698453009215</v>
       </c>
       <c r="J18">
-        <v>0.04112648405835984</v>
+        <v>0.0976501936378078</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.114053907397896</v>
+        <v>0.5807814730888339</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.604199359975553</v>
+        <v>4.031882973184736</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.455274808374782</v>
+        <v>1.272035944950176</v>
       </c>
       <c r="C19">
-        <v>0.9937298030399973</v>
+        <v>0.3478331692133168</v>
       </c>
       <c r="D19">
-        <v>0.4623818636890746</v>
+        <v>0.600780537772863</v>
       </c>
       <c r="E19">
-        <v>0.135379592381863</v>
+        <v>0.2192403165759735</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007873311496526802</v>
+        <v>0.002463732258029649</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3000574023864502</v>
+        <v>0.7143907587340621</v>
       </c>
       <c r="J19">
-        <v>0.04106817231721394</v>
+        <v>0.09769671245879508</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.104366549293196</v>
+        <v>0.5781678418586296</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.592241168481621</v>
+        <v>4.032389477226644</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.592753606513099</v>
+        <v>1.312722384973711</v>
       </c>
       <c r="C20">
-        <v>1.033391629601965</v>
+        <v>0.3594366092290215</v>
       </c>
       <c r="D20">
-        <v>0.4755283051537731</v>
+        <v>0.6027352145598854</v>
       </c>
       <c r="E20">
-        <v>0.1384338291291449</v>
+        <v>0.2194466688250429</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007852985559880472</v>
+        <v>0.00246252263201001</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.2999754528854695</v>
+        <v>0.7113117681572483</v>
       </c>
       <c r="J20">
-        <v>0.04133849552959745</v>
+        <v>0.09749054784551703</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.148028957936745</v>
+        <v>0.5899397373111839</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.646724885020973</v>
+        <v>4.030307761531674</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.057295486012833</v>
+        <v>1.449447342173073</v>
       </c>
       <c r="C21">
-        <v>1.167515504891128</v>
+        <v>0.398421248552097</v>
       </c>
       <c r="D21">
-        <v>0.5208136742085117</v>
+        <v>0.6096488488363434</v>
       </c>
       <c r="E21">
-        <v>0.1490752206592028</v>
+        <v>0.2202680104003782</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007785579030496024</v>
+        <v>0.002458588374469306</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.3017740998910483</v>
+        <v>0.7016061940648228</v>
       </c>
       <c r="J21">
-        <v>0.04239188926870696</v>
+        <v>0.09685346865365219</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.29603114332032</v>
+        <v>0.6296700926318977</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.842190798097846</v>
+        <v>4.026778504780737</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.363205160868404</v>
+        <v>1.538816492752176</v>
       </c>
       <c r="C22">
-        <v>1.255931029260125</v>
+        <v>0.4238975158365861</v>
       </c>
       <c r="D22">
-        <v>0.5513227392706028</v>
+        <v>0.6144252845682558</v>
       </c>
       <c r="E22">
-        <v>0.1563385821697665</v>
+        <v>0.2209002702138001</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007742132063206619</v>
+        <v>0.00245611352134905</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.3046227782026989</v>
+        <v>0.6957412038219175</v>
       </c>
       <c r="J22">
-        <v>0.04319703442741485</v>
+        <v>0.09647859111821333</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.393868950827766</v>
+        <v>0.6557676718742584</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.980048962644446</v>
+        <v>4.027062765824155</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.199701428309197</v>
+        <v>1.491117856588971</v>
       </c>
       <c r="C23">
-        <v>1.208665057989549</v>
+        <v>0.4103006693142675</v>
       </c>
       <c r="D23">
-        <v>0.5349505159228727</v>
+        <v>0.6118524086633101</v>
       </c>
       <c r="E23">
-        <v>0.1524320239996619</v>
+        <v>0.2205540831446164</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007765268541487603</v>
+        <v>0.002457425602320331</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.3029407231611074</v>
+        <v>0.6988276046602877</v>
       </c>
       <c r="J23">
-        <v>0.04275606276277699</v>
+        <v>0.09667487089391713</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.341540157731202</v>
+        <v>0.6418269643763637</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.905488394942438</v>
+        <v>4.026673455136034</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.585194858511954</v>
+        <v>1.310487972846602</v>
       </c>
       <c r="C24">
-        <v>1.031210608184949</v>
+        <v>0.3587994050035945</v>
       </c>
       <c r="D24">
-        <v>0.4748023678428979</v>
+        <v>0.602626570563956</v>
       </c>
       <c r="E24">
-        <v>0.1382647394687062</v>
+        <v>0.219434855421003</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007854098301466183</v>
+        <v>0.002462588568980635</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.2999724602619374</v>
+        <v>0.7114784501864619</v>
       </c>
       <c r="J24">
-        <v>0.0413231252870645</v>
+        <v>0.09750166034899621</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.145626664501037</v>
+        <v>0.5892926061440136</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.643688312616234</v>
+        <v>4.030409064991858</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.930093493108529</v>
+        <v>1.115740146066287</v>
       </c>
       <c r="C25">
-        <v>0.8423449925237492</v>
+        <v>0.3032457402188697</v>
       </c>
       <c r="D25">
-        <v>0.4133300467903496</v>
+        <v>0.5937828307081077</v>
       </c>
       <c r="E25">
-        <v>0.1241467836920656</v>
+        <v>0.2186371516358427</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007952856211379296</v>
+        <v>0.002468574335831778</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3031551625571325</v>
+        <v>0.7271670140547819</v>
       </c>
       <c r="J25">
-        <v>0.04022511586681432</v>
+        <v>0.0985713191511195</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.9381950791748253</v>
+        <v>0.5331997048983013</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.399295368538702</v>
+        <v>4.0455079530538</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_61/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_61/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.972438577363846</v>
+        <v>2.452172610414209</v>
       </c>
       <c r="C2">
-        <v>0.2623415173089541</v>
+        <v>0.7047499624573845</v>
       </c>
       <c r="D2">
-        <v>0.5882220620855207</v>
+        <v>0.3704822337296463</v>
       </c>
       <c r="E2">
-        <v>0.2184013329535901</v>
+        <v>0.1145905611661675</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002473343836612459</v>
+        <v>0.0008028448053740461</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.740465206117733</v>
+        <v>0.3101970938633087</v>
       </c>
       <c r="J2">
-        <v>0.09951159869620341</v>
+        <v>0.03974867347705313</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4923926705346986</v>
+        <v>0.7879163333591492</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>4.066081606316061</v>
+        <v>2.246639330432572</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8753874355857079</v>
+        <v>2.130059419176234</v>
       </c>
       <c r="C3">
-        <v>0.2346213734578271</v>
+        <v>0.612096480410969</v>
       </c>
       <c r="D3">
-        <v>0.585045878658164</v>
+        <v>0.3427203123336113</v>
       </c>
       <c r="E3">
-        <v>0.2184604951824554</v>
+        <v>0.1085654384089523</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002476804055579263</v>
+        <v>0.000808162819719016</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.750562122363128</v>
+        <v>0.3175475243796981</v>
       </c>
       <c r="J3">
-        <v>0.1002439673492326</v>
+        <v>0.03960940784076072</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.465046541074571</v>
+        <v>0.6872051601485651</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>4.085892049871745</v>
+        <v>2.157810390408883</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8158348109444375</v>
+        <v>1.932867851796004</v>
       </c>
       <c r="C4">
-        <v>0.2176024792912301</v>
+        <v>0.5554070442446175</v>
       </c>
       <c r="D4">
-        <v>0.5833877914308232</v>
+        <v>0.3262353177282762</v>
       </c>
       <c r="E4">
-        <v>0.2186047646559146</v>
+        <v>0.1050669772729265</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002479041684627488</v>
+        <v>0.0008115290506052462</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.7572949739284702</v>
+        <v>0.3232259718935317</v>
       </c>
       <c r="J4">
-        <v>0.1007405330698994</v>
+        <v>0.03960742637224612</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4484092753337805</v>
+        <v>0.6258103045135712</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>4.10093991790734</v>
+        <v>2.109764689238887</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7915772034498048</v>
+        <v>1.852619751920372</v>
       </c>
       <c r="C5">
-        <v>0.2106677657038745</v>
+        <v>0.5323434475639033</v>
       </c>
       <c r="D5">
-        <v>0.5827855856817621</v>
+        <v>0.319649183016594</v>
       </c>
       <c r="E5">
-        <v>0.2186906979776602</v>
+        <v>0.1036888960283164</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002479982050146767</v>
+        <v>0.0008129268496120435</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.7601725124401355</v>
+        <v>0.3258181614629656</v>
       </c>
       <c r="J5">
-        <v>0.1009546732079603</v>
+        <v>0.03962664645806768</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.441668304562377</v>
+        <v>0.6008868240327132</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>4.107795947460971</v>
+        <v>2.091719414343743</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7875499210352928</v>
+        <v>1.839300126449643</v>
       </c>
       <c r="C6">
-        <v>0.2095163076937183</v>
+        <v>0.5285156890762437</v>
       </c>
       <c r="D6">
-        <v>0.5826900286028831</v>
+        <v>0.3185632462972734</v>
       </c>
       <c r="E6">
-        <v>0.2187066064519385</v>
+        <v>0.1034628563773552</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002480139922012993</v>
+        <v>0.0008131605436255218</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.7606584020137603</v>
+        <v>0.3262649762749348</v>
       </c>
       <c r="J6">
-        <v>0.1009909426932083</v>
+        <v>0.03963102013392117</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4405513264270553</v>
+        <v>0.5967536211190634</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>4.108978068362887</v>
+        <v>2.088812843782591</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.815507619931509</v>
+        <v>1.931785205318874</v>
       </c>
       <c r="C7">
-        <v>0.2175089524218663</v>
+        <v>0.5550958633449454</v>
       </c>
       <c r="D7">
-        <v>0.5833793723252683</v>
+        <v>0.3261459738582744</v>
       </c>
       <c r="E7">
-        <v>0.2186058136855067</v>
+        <v>0.1050482031718474</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002479054251062564</v>
+        <v>0.0008115477955521329</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.7573332398225574</v>
+        <v>0.3232598237191695</v>
       </c>
       <c r="J7">
-        <v>0.1007433733261394</v>
+        <v>0.03960760573693278</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4483182065613107</v>
+        <v>0.6254738114695897</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>4.101029451475853</v>
+        <v>2.109515241639173</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9389683286097465</v>
+        <v>2.340961924762667</v>
       </c>
       <c r="C8">
-        <v>0.2527834793545765</v>
+        <v>0.6727536496972562</v>
       </c>
       <c r="D8">
-        <v>0.5870663015025457</v>
+        <v>0.3607876419621476</v>
       </c>
       <c r="E8">
-        <v>0.2183993271818743</v>
+        <v>0.1124695368943911</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002474513512016838</v>
+        <v>0.0008046579068556325</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.7438357816711907</v>
+        <v>0.3124804704318116</v>
       </c>
       <c r="J8">
-        <v>0.09975438472355691</v>
+        <v>0.03968271171918047</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.482932053651318</v>
+        <v>0.7530894832832971</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>4.072312818256052</v>
+        <v>2.214601050143955</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.181328301003816</v>
+        <v>3.149937716989598</v>
       </c>
       <c r="C9">
-        <v>0.3219592485391445</v>
+        <v>0.9056915678532675</v>
       </c>
       <c r="D9">
-        <v>0.5966140459414646</v>
+        <v>0.4336296004987048</v>
       </c>
       <c r="E9">
-        <v>0.218851209818645</v>
+        <v>0.1287619405710778</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.00246650201217051</v>
+        <v>0.0007919164567296639</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.7216102846072197</v>
+        <v>0.3013032397833939</v>
       </c>
       <c r="J9">
-        <v>0.09818726704788361</v>
+        <v>0.04054007400256054</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5520180603939622</v>
+        <v>1.00763158826966</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>4.0389486988756</v>
+        <v>2.477040856911913</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.359508651215492</v>
+        <v>3.751263964623774</v>
       </c>
       <c r="C10">
-        <v>0.3727782026186333</v>
+        <v>1.079138574622107</v>
       </c>
       <c r="D10">
-        <v>0.6050434095509161</v>
+        <v>0.4908337070564244</v>
       </c>
       <c r="E10">
-        <v>0.2197063751221613</v>
+        <v>0.1420102725406984</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002461154604383175</v>
+        <v>0.000782977385863516</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.7078834984591289</v>
+        <v>0.3002354833706811</v>
       </c>
       <c r="J10">
-        <v>0.09726324313883339</v>
+        <v>0.04167413723388336</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.6035065312700283</v>
+        <v>1.198450451097827</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>4.02852101812482</v>
+        <v>2.711482775304489</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.440586952492538</v>
+        <v>4.027066878692494</v>
       </c>
       <c r="C11">
-        <v>0.3958952109169331</v>
+        <v>1.158782725478432</v>
       </c>
       <c r="D11">
-        <v>0.6091858181078749</v>
+        <v>0.5178278131031107</v>
       </c>
       <c r="E11">
-        <v>0.2202092254044565</v>
+        <v>0.1483682397934381</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.00245883768083648</v>
+        <v>0.0007789910355018142</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.7022072654228069</v>
+        <v>0.3015627711158757</v>
       </c>
       <c r="J11">
-        <v>0.0968923332169318</v>
+        <v>0.04231701281913658</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.6270879265664604</v>
+        <v>1.286379117116596</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>4.026856362535824</v>
+        <v>2.828954181862173</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.471291614716904</v>
+        <v>4.131896905606709</v>
       </c>
       <c r="C12">
-        <v>0.4046487223262147</v>
+        <v>1.189070287303821</v>
       </c>
       <c r="D12">
-        <v>0.6107987180110115</v>
+        <v>0.5282050315319964</v>
       </c>
       <c r="E12">
-        <v>0.2204160215108324</v>
+        <v>0.1508283628182632</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.00245797685947372</v>
+        <v>0.0007774919980728204</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.70013980947585</v>
+        <v>0.3023502338730992</v>
       </c>
       <c r="J12">
-        <v>0.09675899517979758</v>
+        <v>0.04258032804733247</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.6360402711756308</v>
+        <v>1.319863786019141</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>4.026670355924523</v>
+        <v>2.875157596118498</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.464678744214041</v>
+        <v>4.109301462336362</v>
       </c>
       <c r="C13">
-        <v>0.4027635192024945</v>
+        <v>1.182541261932101</v>
       </c>
       <c r="D13">
-        <v>0.6104493828230773</v>
+        <v>0.5259629514688697</v>
       </c>
       <c r="E13">
-        <v>0.2203707557266874</v>
+        <v>0.1502961140469417</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002458161518058708</v>
+        <v>0.0007778143922557089</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.7005814207184002</v>
+        <v>0.3021675627997098</v>
       </c>
       <c r="J13">
-        <v>0.09678739521302049</v>
+        <v>0.04252270727575791</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.634111223761451</v>
+        <v>1.312643456393687</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>4.026690626921408</v>
+        <v>2.865127623471494</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.44311300923124</v>
+        <v>4.035683108926207</v>
       </c>
       <c r="C14">
-        <v>0.3966153771555696</v>
+        <v>1.161271805523199</v>
       </c>
       <c r="D14">
-        <v>0.6093176253701529</v>
+        <v>0.518678350600112</v>
       </c>
       <c r="E14">
-        <v>0.22022591036108</v>
+        <v>0.1485695539481675</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002458766529564707</v>
+        <v>0.0007788675042851448</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.7020355291866309</v>
+        <v>0.3016217012011992</v>
       </c>
       <c r="J14">
-        <v>0.0968812207189309</v>
+        <v>0.04233826787642769</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.6278239903942193</v>
+        <v>1.28912999362656</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>4.026832144727848</v>
+        <v>2.83271991279787</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.429903606161304</v>
+        <v>3.990642492139614</v>
       </c>
       <c r="C15">
-        <v>0.392849402443801</v>
+        <v>1.148260993559916</v>
       </c>
       <c r="D15">
-        <v>0.608630154930637</v>
+        <v>0.5142370071268658</v>
       </c>
       <c r="E15">
-        <v>0.2201393215088707</v>
+        <v>0.1475189750783557</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002459139268900377</v>
+        <v>0.0007795139027535311</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.7029369020082541</v>
+        <v>0.3013251949451217</v>
       </c>
       <c r="J15">
-        <v>0.09693961873027135</v>
+        <v>0.04222793179820883</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.6239758108299611</v>
+        <v>1.274752624703851</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>4.026976745484546</v>
+        <v>2.81309829441517</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.354210351425536</v>
+        <v>3.733290418578974</v>
       </c>
       <c r="C16">
-        <v>0.3712674114615311</v>
+        <v>1.073950353285227</v>
       </c>
       <c r="D16">
-        <v>0.6047788873554225</v>
+        <v>0.4890904169025418</v>
       </c>
       <c r="E16">
-        <v>0.2196758039965765</v>
+        <v>0.1416018357393654</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002461308340735313</v>
+        <v>0.0007832394303250942</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.7082659128524291</v>
+        <v>0.3001872384168109</v>
       </c>
       <c r="J16">
-        <v>0.09728847846826127</v>
+        <v>0.04163481345453945</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.6019686071547028</v>
+        <v>1.192728923081532</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>4.028691901449889</v>
+        <v>2.704037137196906</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.307780021232304</v>
+        <v>3.576035553179338</v>
       </c>
       <c r="C17">
-        <v>0.3580271530907453</v>
+        <v>1.028567815133755</v>
       </c>
       <c r="D17">
-        <v>0.6024951004513355</v>
+        <v>0.4739231978739156</v>
       </c>
       <c r="E17">
-        <v>0.2194206121136659</v>
+        <v>0.1380600251712849</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002462668555780089</v>
+        <v>0.0007855447399565736</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.7116808265507686</v>
+        <v>0.2999699940321321</v>
       </c>
       <c r="J17">
-        <v>0.09751516005171723</v>
+        <v>0.0413045788559927</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5885084270271363</v>
+        <v>1.142715948232521</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>4.030533833824819</v>
+        <v>2.640015093828907</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.281076778199292</v>
+        <v>3.485794878892989</v>
       </c>
       <c r="C18">
-        <v>0.350411649137925</v>
+        <v>1.002533448817843</v>
       </c>
       <c r="D18">
-        <v>0.6012105032647526</v>
+        <v>0.4652898709464921</v>
       </c>
       <c r="E18">
-        <v>0.219284546286076</v>
+        <v>0.1360537301887774</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002463461804783126</v>
+        <v>0.0007868782955589724</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.713698453009215</v>
+        <v>0.3000141219594781</v>
       </c>
       <c r="J18">
-        <v>0.0976501936378078</v>
+        <v>0.04112648405841313</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5807814730888339</v>
+        <v>1.11405390739791</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>4.031882973184736</v>
+        <v>2.604199359975496</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.272035944950176</v>
+        <v>3.455274808374838</v>
       </c>
       <c r="C19">
-        <v>0.3478331692133168</v>
+        <v>0.9937298030402815</v>
       </c>
       <c r="D19">
-        <v>0.600780537772863</v>
+        <v>0.4623818636889325</v>
       </c>
       <c r="E19">
-        <v>0.2192403165759735</v>
+        <v>0.1353795923818559</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002463732258029649</v>
+        <v>0.0007873311496839046</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.7143907587340621</v>
+        <v>0.300057402386436</v>
       </c>
       <c r="J19">
-        <v>0.09769671245879508</v>
+        <v>0.04106817231718196</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5781678418586296</v>
+        <v>1.104366549293182</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>4.032389477226644</v>
+        <v>2.592241168481621</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.312722384973711</v>
+        <v>3.592753606513043</v>
       </c>
       <c r="C20">
-        <v>0.3594366092290215</v>
+        <v>1.03339162960188</v>
       </c>
       <c r="D20">
-        <v>0.6027352145598854</v>
+        <v>0.4755283051538015</v>
       </c>
       <c r="E20">
-        <v>0.2194466688250429</v>
+        <v>0.1384338291291449</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.00246252263201001</v>
+        <v>0.000785298556019276</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.7113117681572483</v>
+        <v>0.2999754528854766</v>
       </c>
       <c r="J20">
-        <v>0.09749054784551703</v>
+        <v>0.04133849552960456</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5899397373111839</v>
+        <v>1.148028957936717</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>4.030307761531674</v>
+        <v>2.646724885020973</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.449447342173073</v>
+        <v>4.057295486012777</v>
       </c>
       <c r="C21">
-        <v>0.398421248552097</v>
+        <v>1.167515504891071</v>
       </c>
       <c r="D21">
-        <v>0.6096488488363434</v>
+        <v>0.5208136742085685</v>
       </c>
       <c r="E21">
-        <v>0.2202680104003782</v>
+        <v>0.1490752206591708</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002458588374469306</v>
+        <v>0.0007785579031060814</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.7016061940648228</v>
+        <v>0.3017740998910696</v>
       </c>
       <c r="J21">
-        <v>0.09685346865365219</v>
+        <v>0.04239188926869986</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.6296700926318977</v>
+        <v>1.296031143320349</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>4.026778504780737</v>
+        <v>2.842190798097931</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.538816492752176</v>
+        <v>4.363205160868688</v>
       </c>
       <c r="C22">
-        <v>0.4238975158365861</v>
+        <v>1.25593102926058</v>
       </c>
       <c r="D22">
-        <v>0.6144252845682558</v>
+        <v>0.551322739270546</v>
       </c>
       <c r="E22">
-        <v>0.2209002702138001</v>
+        <v>0.1563385821697629</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.00245611352134905</v>
+        <v>0.0007742132063196435</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.6957412038219175</v>
+        <v>0.3046227782026989</v>
       </c>
       <c r="J22">
-        <v>0.09647859111821333</v>
+        <v>0.0431970344273509</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.6557676718742584</v>
+        <v>1.393868950827752</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>4.027062765824155</v>
+        <v>2.980048962644446</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.491117856588971</v>
+        <v>4.199701428309083</v>
       </c>
       <c r="C23">
-        <v>0.4103006693142675</v>
+        <v>1.208665057989663</v>
       </c>
       <c r="D23">
-        <v>0.6118524086633101</v>
+        <v>0.5349505159227874</v>
       </c>
       <c r="E23">
-        <v>0.2205540831446164</v>
+        <v>0.1524320239996619</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002457425602320331</v>
+        <v>0.0007765268541484049</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.6988276046602877</v>
+        <v>0.3029407231611145</v>
       </c>
       <c r="J23">
-        <v>0.09667487089391713</v>
+        <v>0.04275606276276278</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.6418269643763637</v>
+        <v>1.341540157731188</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>4.026673455136034</v>
+        <v>2.905488394942552</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.310487972846602</v>
+        <v>3.585194858512011</v>
       </c>
       <c r="C24">
-        <v>0.3587994050035945</v>
+        <v>1.031210608184864</v>
       </c>
       <c r="D24">
-        <v>0.602626570563956</v>
+        <v>0.474802367842841</v>
       </c>
       <c r="E24">
-        <v>0.219434855421003</v>
+        <v>0.1382647394686991</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002462588568980635</v>
+        <v>0.0007854098302015977</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.7114784501864619</v>
+        <v>0.2999724602619267</v>
       </c>
       <c r="J24">
-        <v>0.09750166034899621</v>
+        <v>0.04132312528708937</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5892926061440136</v>
+        <v>1.145626664501023</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>4.030409064991858</v>
+        <v>2.64368831261632</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.115740146066287</v>
+        <v>2.930093493108529</v>
       </c>
       <c r="C25">
-        <v>0.3032457402188697</v>
+        <v>0.8423449925238344</v>
       </c>
       <c r="D25">
-        <v>0.5937828307081077</v>
+        <v>0.4133300467902785</v>
       </c>
       <c r="E25">
-        <v>0.2186371516358427</v>
+        <v>0.1241467836920904</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002468574335831778</v>
+        <v>0.0007952856211656332</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.7271670140547819</v>
+        <v>0.3031551625571289</v>
       </c>
       <c r="J25">
-        <v>0.0985713191511195</v>
+        <v>0.04022511586680011</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.5331997048983013</v>
+        <v>0.9381950791748253</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>4.0455079530538</v>
+        <v>2.399295368538816</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_61/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_61/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.452172610414209</v>
+        <v>3.494755531866417</v>
       </c>
       <c r="C2">
-        <v>0.7047499624573845</v>
+        <v>1.104447999270292</v>
       </c>
       <c r="D2">
-        <v>0.3704822337296463</v>
+        <v>0.2025821915760133</v>
       </c>
       <c r="E2">
-        <v>0.1145905611661675</v>
+        <v>1.369588950883696</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008028448053740461</v>
+        <v>0.296985611925173</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.01290911007433793</v>
       </c>
       <c r="I2">
-        <v>0.3101970938633087</v>
+        <v>0.006599820139230328</v>
       </c>
       <c r="J2">
-        <v>0.03974867347705313</v>
+        <v>0.2344053823984993</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.1290833838792942</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.7879163333591492</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.246639330432572</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1.070828497174205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.130059419176234</v>
+        <v>3.048063997646352</v>
       </c>
       <c r="C3">
-        <v>0.612096480410969</v>
+        <v>0.9726331836720021</v>
       </c>
       <c r="D3">
-        <v>0.3427203123336113</v>
+        <v>0.1758165658127808</v>
       </c>
       <c r="E3">
-        <v>0.1085654384089523</v>
+        <v>1.194887964861181</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.000808162819719016</v>
+        <v>0.2728873351604761</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.009501603095903317</v>
       </c>
       <c r="I3">
-        <v>0.3175475243796981</v>
+        <v>0.004571195164165154</v>
       </c>
       <c r="J3">
-        <v>0.03960940784076072</v>
+        <v>0.2284247310797198</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.1375850901126991</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6872051601485651</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.157810390408883</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1.006874401768414</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.932867851796004</v>
+        <v>2.773383066850727</v>
       </c>
       <c r="C4">
-        <v>0.5554070442446175</v>
+        <v>0.8921534863817442</v>
       </c>
       <c r="D4">
-        <v>0.3262353177282762</v>
+        <v>0.1595142635313636</v>
       </c>
       <c r="E4">
-        <v>0.1050669772729265</v>
+        <v>1.087871404133878</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008115290506052462</v>
+        <v>0.258605317861587</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.007608466126223068</v>
       </c>
       <c r="I4">
-        <v>0.3232259718935317</v>
+        <v>0.003516394010524504</v>
       </c>
       <c r="J4">
-        <v>0.03960742637224612</v>
+        <v>0.2250914042725398</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.1432059510765118</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6258103045135712</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.109764689238887</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0.9693975038089064</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.852619751920372</v>
+        <v>2.66129808080882</v>
       </c>
       <c r="C5">
-        <v>0.5323434475639033</v>
+        <v>0.86081931780231</v>
       </c>
       <c r="D5">
-        <v>0.319649183016594</v>
+        <v>0.1528993861349193</v>
       </c>
       <c r="E5">
-        <v>0.1036888960283164</v>
+        <v>1.044291035051572</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008129268496120435</v>
+        <v>0.2524043366476008</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.006881628428446307</v>
       </c>
       <c r="I5">
-        <v>0.3258181614629656</v>
+        <v>0.00318563235682312</v>
       </c>
       <c r="J5">
-        <v>0.03962664645806768</v>
+        <v>0.2235513744144271</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.1453665941828035</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6008868240327132</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.091719414343743</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0.9529351366554124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.839300126449643</v>
+        <v>2.642643360696241</v>
       </c>
       <c r="C6">
-        <v>0.5285156890762437</v>
+        <v>0.8572891109385239</v>
       </c>
       <c r="D6">
-        <v>0.3185632462972734</v>
+        <v>0.1518017672714791</v>
       </c>
       <c r="E6">
-        <v>0.1034628563773552</v>
+        <v>1.037040450764778</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008131605436255218</v>
+        <v>0.2507718136188117</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.006762103109473339</v>
       </c>
       <c r="I6">
-        <v>0.3262649762749348</v>
+        <v>0.00320792257786362</v>
       </c>
       <c r="J6">
-        <v>0.03963102013392117</v>
+        <v>0.2229804423201003</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.1454565661652012</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5967536211190634</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.088812843782591</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0.9482633844786648</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.931785205318874</v>
+        <v>2.771775052853741</v>
       </c>
       <c r="C7">
-        <v>0.5550958633449454</v>
+        <v>0.8962959088952971</v>
       </c>
       <c r="D7">
-        <v>0.3261459738582744</v>
+        <v>0.159422463458597</v>
       </c>
       <c r="E7">
-        <v>0.1050482031718474</v>
+        <v>1.087239387511005</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008115477955521329</v>
+        <v>0.2568543956929119</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.007594241257415757</v>
       </c>
       <c r="I7">
-        <v>0.3232598237191695</v>
+        <v>0.003700895508048418</v>
       </c>
       <c r="J7">
-        <v>0.03960760573693278</v>
+        <v>0.2241969897143079</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.1424871321446179</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6254738114695897</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.109515241639173</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0.963811628739478</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.340961924762667</v>
+        <v>3.340678984981139</v>
       </c>
       <c r="C8">
-        <v>0.6727536496972562</v>
+        <v>1.065001212713724</v>
       </c>
       <c r="D8">
-        <v>0.3607876419621476</v>
+        <v>0.1933198195572601</v>
       </c>
       <c r="E8">
-        <v>0.1124695368943911</v>
+        <v>1.309228865946125</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008046579068556325</v>
+        <v>0.2863534069505675</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.01168385938572522</v>
       </c>
       <c r="I8">
-        <v>0.3124804704318116</v>
+        <v>0.006081866077238374</v>
       </c>
       <c r="J8">
-        <v>0.03968271171918047</v>
+        <v>0.2311173510357989</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.1309534639950627</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.7530894832832971</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.214601050143955</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1.041287456741742</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.149937716989598</v>
+        <v>4.454172075821702</v>
       </c>
       <c r="C9">
-        <v>0.9056915678532675</v>
+        <v>1.39175655269446</v>
       </c>
       <c r="D9">
-        <v>0.4336296004987048</v>
+        <v>0.2610376605457674</v>
       </c>
       <c r="E9">
-        <v>0.1287619405710778</v>
+        <v>1.747584919426856</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007919164567296639</v>
+        <v>0.3518206489737139</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.02149092473354886</v>
       </c>
       <c r="I9">
-        <v>0.3013032397833939</v>
+        <v>0.01217209223513205</v>
       </c>
       <c r="J9">
-        <v>0.04054007400256054</v>
+        <v>0.2491789690843689</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.1130755859589669</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.00763158826966</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.477040856911913</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1.218704253649094</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.751263964623774</v>
+        <v>5.271380032958064</v>
       </c>
       <c r="C10">
-        <v>1.079138574622107</v>
+        <v>1.633008335155751</v>
       </c>
       <c r="D10">
-        <v>0.4908337070564244</v>
+        <v>0.3117672713582493</v>
       </c>
       <c r="E10">
-        <v>0.1420102725406984</v>
+        <v>1.970166037251886</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.000782977385863516</v>
+        <v>0.393873602101948</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.02930783809505533</v>
       </c>
       <c r="I10">
-        <v>0.3002354833706811</v>
+        <v>0.01790571607006175</v>
       </c>
       <c r="J10">
-        <v>0.04167413723388336</v>
+        <v>0.2598221447684494</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.09990834122943149</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.198450451097827</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.711482775304489</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.330686920964439</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.027066878692494</v>
+        <v>5.635504891192454</v>
       </c>
       <c r="C11">
-        <v>1.158782725478432</v>
+        <v>1.71129436332302</v>
       </c>
       <c r="D11">
-        <v>0.5178278131031107</v>
+        <v>0.3345726338695414</v>
       </c>
       <c r="E11">
-        <v>0.1483682397934381</v>
+        <v>1.278989799379019</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007789910355018142</v>
+        <v>0.3374545154370168</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.04455361440832561</v>
       </c>
       <c r="I11">
-        <v>0.3015627711158757</v>
+        <v>0.01993721511828728</v>
       </c>
       <c r="J11">
-        <v>0.04231701281913658</v>
+        <v>0.2273432674594318</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.07739998949537785</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.286379117116596</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.828954181862173</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1.143257893057779</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.131896905606709</v>
+        <v>5.770729295020146</v>
       </c>
       <c r="C12">
-        <v>1.189070287303821</v>
+        <v>1.718593909101287</v>
       </c>
       <c r="D12">
-        <v>0.5282050315319964</v>
+        <v>0.3430448478091677</v>
       </c>
       <c r="E12">
-        <v>0.1508283628182632</v>
+        <v>0.7810176386948342</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007774919980728204</v>
+        <v>0.2869604530648644</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.08027768506632071</v>
       </c>
       <c r="I12">
-        <v>0.3023502338730992</v>
+        <v>0.02015261865733553</v>
       </c>
       <c r="J12">
-        <v>0.04258032804733247</v>
+        <v>0.2003488580891428</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.06488132046630302</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.319863786019141</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.875157596118498</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0.9797412031718125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.109301462336362</v>
+        <v>5.73619202164457</v>
       </c>
       <c r="C13">
-        <v>1.182541261932101</v>
+        <v>1.678961569672992</v>
       </c>
       <c r="D13">
-        <v>0.5259629514688697</v>
+        <v>0.3408260206637266</v>
       </c>
       <c r="E13">
-        <v>0.1502961140469417</v>
+        <v>0.4030530640641317</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007778143922557089</v>
+        <v>0.2355387995722111</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1330783844543078</v>
       </c>
       <c r="I13">
-        <v>0.3021675627997098</v>
+        <v>0.01923901785030768</v>
       </c>
       <c r="J13">
-        <v>0.04252270727575791</v>
+        <v>0.1746158649884393</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.05791185200737825</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.312643456393687</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.865127623471494</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.8168006070062148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.035683108926207</v>
+        <v>5.635180932119908</v>
       </c>
       <c r="C14">
-        <v>1.161271805523199</v>
+        <v>1.631641332485685</v>
       </c>
       <c r="D14">
-        <v>0.518678350600112</v>
+        <v>0.3344454076839725</v>
       </c>
       <c r="E14">
-        <v>0.1485695539481675</v>
+        <v>0.2113240704496775</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007788675042851448</v>
+        <v>0.1995692846246726</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1804794987023683</v>
       </c>
       <c r="I14">
-        <v>0.3016217012011992</v>
+        <v>0.01819727239196922</v>
       </c>
       <c r="J14">
-        <v>0.04233826787642769</v>
+        <v>0.1573140282175771</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.05579413840070035</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.28912999362656</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.83271991279787</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.7042412663197979</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.990642492139614</v>
+        <v>5.574275409311554</v>
       </c>
       <c r="C15">
-        <v>1.148260993559916</v>
+        <v>1.612087895315426</v>
       </c>
       <c r="D15">
-        <v>0.5142370071268658</v>
+        <v>0.3306143527376832</v>
       </c>
       <c r="E15">
-        <v>0.1475189750783557</v>
+        <v>0.1736194410145053</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007795139027535311</v>
+        <v>0.1897862594655564</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1923327901696013</v>
       </c>
       <c r="I15">
-        <v>0.3013251949451217</v>
+        <v>0.01779164489983742</v>
       </c>
       <c r="J15">
-        <v>0.04222793179820883</v>
+        <v>0.1529830206172988</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.05603363296847141</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.274752624703851</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.81309829441517</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.6743913126502719</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.733290418578974</v>
+        <v>5.228602430849776</v>
       </c>
       <c r="C16">
-        <v>1.073950353285227</v>
+        <v>1.519813720388527</v>
       </c>
       <c r="D16">
-        <v>0.4890904169025418</v>
+        <v>0.3089741889390183</v>
       </c>
       <c r="E16">
-        <v>0.1416018357393654</v>
+        <v>0.1695932194363259</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007832394303250942</v>
+        <v>0.1820217814160401</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1771435733441535</v>
       </c>
       <c r="I16">
-        <v>0.3001872384168109</v>
+        <v>0.01556189245342043</v>
       </c>
       <c r="J16">
-        <v>0.04163481345453945</v>
+        <v>0.153301166408383</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.06212746846390926</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.192728923081532</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.704037137196906</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.6583724342861217</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.576035553179338</v>
+        <v>5.017735997063141</v>
       </c>
       <c r="C17">
-        <v>1.028567815133755</v>
+        <v>1.474392848815512</v>
       </c>
       <c r="D17">
-        <v>0.4739231978739156</v>
+        <v>0.2958489909226927</v>
       </c>
       <c r="E17">
-        <v>0.1380600251712849</v>
+        <v>0.2545670839423693</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007855447399565736</v>
+        <v>0.1947175618632713</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1384380651492165</v>
       </c>
       <c r="I17">
-        <v>0.2999699940321321</v>
+        <v>0.01444053422328473</v>
       </c>
       <c r="J17">
-        <v>0.0413045788559927</v>
+        <v>0.1625912438316206</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.06781477412005499</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.142715948232521</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.640015093828907</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.7046075719838143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.485794878892989</v>
+        <v>4.898494370034825</v>
       </c>
       <c r="C18">
-        <v>1.002533448817843</v>
+        <v>1.459967779948784</v>
       </c>
       <c r="D18">
-        <v>0.4652898709464921</v>
+        <v>0.2884587701095853</v>
       </c>
       <c r="E18">
-        <v>0.1360537301887774</v>
+        <v>0.4892513709247979</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007868782955589724</v>
+        <v>0.229233877511632</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.08634768036776563</v>
       </c>
       <c r="I18">
-        <v>0.3000141219594781</v>
+        <v>0.01388628141921622</v>
       </c>
       <c r="J18">
-        <v>0.04112648405841313</v>
+        <v>0.1818961435536934</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.07523863025076682</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.11405390739791</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.604199359975496</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.8181428984665473</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.455274808374838</v>
+        <v>4.861430256553319</v>
       </c>
       <c r="C19">
-        <v>0.9937298030402815</v>
+        <v>1.480706734586818</v>
       </c>
       <c r="D19">
-        <v>0.4623818636889325</v>
+        <v>0.2861851188042976</v>
       </c>
       <c r="E19">
-        <v>0.1353795923818559</v>
+        <v>0.9255079241216038</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007873311496839046</v>
+        <v>0.2795206713459066</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.04393758433301542</v>
       </c>
       <c r="I19">
-        <v>0.300057402386436</v>
+        <v>0.01434179300799698</v>
       </c>
       <c r="J19">
-        <v>0.04106817231718196</v>
+        <v>0.207866851773602</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.08487147044605159</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.104366549293182</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.592241168481621</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0.9791377751410266</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.592753606513043</v>
+        <v>5.05638883063051</v>
       </c>
       <c r="C20">
-        <v>1.03339162960188</v>
+        <v>1.583984996718584</v>
       </c>
       <c r="D20">
-        <v>0.4755283051538015</v>
+        <v>0.2983507436103423</v>
       </c>
       <c r="E20">
-        <v>0.1384338291291449</v>
+        <v>1.907146691757944</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.000785298556019276</v>
+        <v>0.3770315041107324</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.02709058185836755</v>
       </c>
       <c r="I20">
-        <v>0.2999754528854766</v>
+        <v>0.01690563700907433</v>
       </c>
       <c r="J20">
-        <v>0.04133849552960456</v>
+        <v>0.2540155606748016</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.1009360949408293</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.148028957936717</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.646724885020973</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1.282684829102578</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.057295486012777</v>
+        <v>5.68540150450923</v>
       </c>
       <c r="C21">
-        <v>1.167515504891071</v>
+        <v>1.774488227225277</v>
       </c>
       <c r="D21">
-        <v>0.5208136742085685</v>
+        <v>0.3377930857493538</v>
       </c>
       <c r="E21">
-        <v>0.1490752206591708</v>
+        <v>2.238103299317132</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007785579031060814</v>
+        <v>0.4254583913140522</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.03479661176425308</v>
       </c>
       <c r="I21">
-        <v>0.3017740998910696</v>
+        <v>0.02189220659846569</v>
       </c>
       <c r="J21">
-        <v>0.04239188926869986</v>
+        <v>0.2702681626077208</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.09548840592339403</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.296031143320349</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.842190798097931</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.419797361112131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.363205160868688</v>
+        <v>6.09672182756492</v>
       </c>
       <c r="C22">
-        <v>1.25593102926058</v>
+        <v>1.891407019577343</v>
       </c>
       <c r="D22">
-        <v>0.551322739270546</v>
+        <v>0.3638302719130166</v>
       </c>
       <c r="E22">
-        <v>0.1563385821697629</v>
+        <v>2.403321426473696</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007742132063196435</v>
+        <v>0.4557270845958072</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.03979648589656737</v>
       </c>
       <c r="I22">
-        <v>0.3046227782026989</v>
+        <v>0.02516522672606403</v>
       </c>
       <c r="J22">
-        <v>0.0431970344273509</v>
+        <v>0.2803153234122391</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.09232168782512318</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.393868950827752</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.980048962644446</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.505264560513609</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.199701428309083</v>
+        <v>5.87725823363246</v>
       </c>
       <c r="C23">
-        <v>1.208665057989663</v>
+        <v>1.823293603850232</v>
       </c>
       <c r="D23">
-        <v>0.5349505159227874</v>
+        <v>0.349910370300293</v>
       </c>
       <c r="E23">
-        <v>0.1524320239996619</v>
+        <v>2.315088691285723</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007765268541484049</v>
+        <v>0.4414472828609206</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.0371022417212572</v>
       </c>
       <c r="I23">
-        <v>0.3029407231611145</v>
+        <v>0.02315313095874316</v>
       </c>
       <c r="J23">
-        <v>0.04275606276276278</v>
+        <v>0.2759180455926469</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.09477423522825212</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.341540157731188</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.905488394942552</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.465644894181253</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.585194858512011</v>
+        <v>5.047030597175365</v>
       </c>
       <c r="C24">
-        <v>1.031210608184864</v>
+        <v>1.57592087024392</v>
       </c>
       <c r="D24">
-        <v>0.474802367842841</v>
+        <v>0.2977660513595453</v>
       </c>
       <c r="E24">
-        <v>0.1382647394686991</v>
+        <v>1.983021668090046</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007854098302015977</v>
+        <v>0.3862248613102679</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.02758793652710967</v>
       </c>
       <c r="I24">
-        <v>0.2999724602619267</v>
+        <v>0.01655029182545675</v>
       </c>
       <c r="J24">
-        <v>0.04132312528708937</v>
+        <v>0.258740197546885</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.103954256980769</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.145626664501023</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.64368831261632</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1.312065243603598</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.930093493108529</v>
+        <v>4.152855274663295</v>
       </c>
       <c r="C25">
-        <v>0.8423449925238344</v>
+        <v>1.311285496080643</v>
       </c>
       <c r="D25">
-        <v>0.4133300467902785</v>
+        <v>0.2425508096052198</v>
       </c>
       <c r="E25">
-        <v>0.1241467836920904</v>
+        <v>1.628456351073353</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007952856211656332</v>
+        <v>0.3305164955057904</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.01860842246154482</v>
       </c>
       <c r="I25">
-        <v>0.3031551625571289</v>
+        <v>0.0106425858756225</v>
       </c>
       <c r="J25">
-        <v>0.04022511586680011</v>
+        <v>0.2423763913062231</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.1162121064906252</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.9381950791748253</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.399295368538816</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1.159085586652253</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_61/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_61/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,46 +421,52 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.494755531866417</v>
+        <v>3.49161153624749</v>
       </c>
       <c r="C2">
-        <v>1.104447999270292</v>
+        <v>1.130750282117049</v>
       </c>
       <c r="D2">
-        <v>0.2025821915760133</v>
+        <v>0.2023569539904742</v>
       </c>
       <c r="E2">
-        <v>1.369588950883696</v>
+        <v>1.366155178355839</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.296985611925173</v>
+        <v>0.2717382041466294</v>
       </c>
       <c r="H2">
-        <v>0.01290911007433793</v>
+        <v>0.01252314429955936</v>
       </c>
       <c r="I2">
-        <v>0.006599820139230328</v>
+        <v>0.006301241106131172</v>
       </c>
       <c r="J2">
-        <v>0.2344053823984993</v>
+        <v>0.2753636931525278</v>
       </c>
       <c r="K2">
-        <v>0.1290833838792942</v>
+        <v>0.1256227210054277</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.09531647996179871</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.01688265719919979</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -472,48 +478,54 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.070828497174205</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.043565034138823</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.048063997646352</v>
+        <v>3.04703736606649</v>
       </c>
       <c r="C3">
-        <v>0.9726331836720021</v>
+        <v>0.9871044512653384</v>
       </c>
       <c r="D3">
-        <v>0.1758165658127808</v>
+        <v>0.1756782186431849</v>
       </c>
       <c r="E3">
-        <v>1.194887964861181</v>
+        <v>1.192582024676952</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.2728873351604761</v>
+        <v>0.2503498145151752</v>
       </c>
       <c r="H3">
-        <v>0.009501603095903317</v>
+        <v>0.009264579200837023</v>
       </c>
       <c r="I3">
-        <v>0.004571195164165154</v>
+        <v>0.004536458808864552</v>
       </c>
       <c r="J3">
-        <v>0.2284247310797198</v>
+        <v>0.2694544579265354</v>
       </c>
       <c r="K3">
-        <v>0.1375850901126991</v>
+        <v>0.1344977721934093</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1011967125843345</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.0184051535303329</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -525,48 +537,54 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.006874401768414</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0.9898205073009336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.773383066850727</v>
+        <v>2.773530039304319</v>
       </c>
       <c r="C4">
-        <v>0.8921534863817442</v>
+        <v>0.8996133277100853</v>
       </c>
       <c r="D4">
-        <v>0.1595142635313636</v>
+        <v>0.1594208088060185</v>
       </c>
       <c r="E4">
-        <v>1.087871404133878</v>
+        <v>1.086210732786</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.258605317861587</v>
+        <v>0.2376940208432927</v>
       </c>
       <c r="H4">
-        <v>0.007608466126223068</v>
+        <v>0.00744912563180905</v>
       </c>
       <c r="I4">
-        <v>0.003516394010524504</v>
+        <v>0.003610145906363105</v>
       </c>
       <c r="J4">
-        <v>0.2250914042725398</v>
+        <v>0.2659427199197637</v>
       </c>
       <c r="K4">
-        <v>0.1432059510765118</v>
+        <v>0.1402677141692337</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1050566083355626</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.01984520647265198</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -578,48 +596,54 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.9693975038089064</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0.9581118686517271</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.66129808080882</v>
+        <v>2.661896115167679</v>
       </c>
       <c r="C5">
-        <v>0.86081931780231</v>
+        <v>0.8654533134886719</v>
       </c>
       <c r="D5">
-        <v>0.1528993861349193</v>
+        <v>0.1528224095441004</v>
       </c>
       <c r="E5">
-        <v>1.044291035051572</v>
+        <v>1.042883553711434</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.2524043366476008</v>
+        <v>0.2321735531814895</v>
       </c>
       <c r="H5">
-        <v>0.006881628428446307</v>
+        <v>0.006750854458092204</v>
       </c>
       <c r="I5">
-        <v>0.00318563235682312</v>
+        <v>0.003336969607242501</v>
       </c>
       <c r="J5">
-        <v>0.2235513744144271</v>
+        <v>0.2642794898486613</v>
       </c>
       <c r="K5">
-        <v>0.1453665941828035</v>
+        <v>0.1424861971060469</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1065581413668966</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.02053005759804072</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -631,48 +655,54 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.9529351366554124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0.9439514389560202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.642643360696241</v>
+        <v>2.643315074462862</v>
       </c>
       <c r="C6">
-        <v>0.8572891109385239</v>
+        <v>0.8614181904468694</v>
       </c>
       <c r="D6">
-        <v>0.1518017672714791</v>
+        <v>0.1517274535555657</v>
       </c>
       <c r="E6">
-        <v>1.037040450764778</v>
+        <v>1.035675054881537</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.2507718136188117</v>
+        <v>0.2306876318945186</v>
       </c>
       <c r="H6">
-        <v>0.006762103109473339</v>
+        <v>0.006635954707853831</v>
       </c>
       <c r="I6">
-        <v>0.00320792257786362</v>
+        <v>0.003385660490210718</v>
       </c>
       <c r="J6">
-        <v>0.2229804423201003</v>
+        <v>0.2636883221160886</v>
       </c>
       <c r="K6">
-        <v>0.1454565661652012</v>
+        <v>0.1426047288790695</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1066489195365907</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.02061912310963043</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -684,48 +714,54 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.9482633844786648</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0.939742949378001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.771775052853741</v>
+        <v>2.7718812833063</v>
       </c>
       <c r="C7">
-        <v>0.8962959088952971</v>
+        <v>0.9029038159937102</v>
       </c>
       <c r="D7">
-        <v>0.159422463458597</v>
+        <v>0.1593268161941808</v>
       </c>
       <c r="E7">
-        <v>1.087239387511005</v>
+        <v>1.085539458325854</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.2568543956929119</v>
+        <v>0.2385946766420801</v>
       </c>
       <c r="H7">
-        <v>0.007594241257415757</v>
+        <v>0.007431231238096525</v>
       </c>
       <c r="I7">
-        <v>0.003700895508048418</v>
+        <v>0.003835499036174639</v>
       </c>
       <c r="J7">
-        <v>0.2241969897143079</v>
+        <v>0.2608615670660939</v>
       </c>
       <c r="K7">
-        <v>0.1424871321446179</v>
+        <v>0.1393724784386681</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1045039020848044</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.01971816786569702</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -737,48 +773,54 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.963811628739478</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0.9497839412652809</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.340678984981139</v>
+        <v>3.338132656465859</v>
       </c>
       <c r="C8">
-        <v>1.065001212713724</v>
+        <v>1.084665996740085</v>
       </c>
       <c r="D8">
-        <v>0.1933198195572601</v>
+        <v>0.1931170942120843</v>
       </c>
       <c r="E8">
-        <v>1.309228865946125</v>
+        <v>1.306048605693519</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.2863534069505675</v>
+        <v>0.2707267238007347</v>
       </c>
       <c r="H8">
-        <v>0.01168385938572522</v>
+        <v>0.01133640984138909</v>
       </c>
       <c r="I8">
-        <v>0.006081866077238374</v>
+        <v>0.005919525438071283</v>
       </c>
       <c r="J8">
-        <v>0.2311173510357989</v>
+        <v>0.2584786842704219</v>
       </c>
       <c r="K8">
-        <v>0.1309534639950627</v>
+        <v>0.1269861353290196</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.09640529640203255</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.01693799657733841</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -790,48 +832,54 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.041287456741742</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.008024055233122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.454172075821702</v>
+        <v>4.445374613151955</v>
       </c>
       <c r="C9">
-        <v>1.39175655269446</v>
+        <v>1.441740360351844</v>
       </c>
       <c r="D9">
-        <v>0.2610376605457674</v>
+        <v>0.260551768714862</v>
       </c>
       <c r="E9">
-        <v>1.747584919426856</v>
+        <v>1.741201543941187</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.3518206489737139</v>
+        <v>0.3315692212773342</v>
       </c>
       <c r="H9">
-        <v>0.02149092473354886</v>
+        <v>0.02067091718562186</v>
       </c>
       <c r="I9">
-        <v>0.01217209223513205</v>
+        <v>0.01106585126639903</v>
       </c>
       <c r="J9">
-        <v>0.2491789690843689</v>
+        <v>0.2711789912460603</v>
       </c>
       <c r="K9">
-        <v>0.1130755859589669</v>
+        <v>0.1074642615159753</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.08367479579464998</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.01603363739454444</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -843,48 +891,54 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.218704253649094</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.153897201315743</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.271380032958064</v>
+        <v>5.256752140197705</v>
       </c>
       <c r="C10">
-        <v>1.633008335155751</v>
+        <v>1.699979070945687</v>
       </c>
       <c r="D10">
-        <v>0.3117672713582493</v>
+        <v>0.3109834686941895</v>
       </c>
       <c r="E10">
-        <v>1.970166037251886</v>
+        <v>1.961047975199449</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.393873602101948</v>
+        <v>0.386391139120434</v>
       </c>
       <c r="H10">
-        <v>0.02930783809505533</v>
+        <v>0.02803219772444265</v>
       </c>
       <c r="I10">
-        <v>0.01790571607006175</v>
+        <v>0.01586689096185268</v>
       </c>
       <c r="J10">
-        <v>0.2598221447684494</v>
+        <v>0.2546098396148579</v>
       </c>
       <c r="K10">
-        <v>0.09990834122943149</v>
+        <v>0.09208195146219289</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.07453115912792452</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.01678292666734826</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -896,48 +950,54 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.330686920964439</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.225931637747351</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.635504891192454</v>
+        <v>5.61850947590608</v>
       </c>
       <c r="C11">
-        <v>1.71129436332302</v>
+        <v>1.760115042531481</v>
       </c>
       <c r="D11">
-        <v>0.3345726338695414</v>
+        <v>0.3336332113255907</v>
       </c>
       <c r="E11">
-        <v>1.278989799379019</v>
+        <v>1.270632682636247</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.3374545154370168</v>
+        <v>0.3667735995828707</v>
       </c>
       <c r="H11">
-        <v>0.04455361440832561</v>
+        <v>0.04322983663424296</v>
       </c>
       <c r="I11">
-        <v>0.01993721511828728</v>
+        <v>0.01762975130842648</v>
       </c>
       <c r="J11">
-        <v>0.2273432674594318</v>
+        <v>0.1874158775662949</v>
       </c>
       <c r="K11">
-        <v>0.07739998949537785</v>
+        <v>0.07221043325082732</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.06668100489040762</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.01105087439957497</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -949,48 +1009,54 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.143257893057779</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.023391787464817</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.770729295020146</v>
+        <v>5.753142263963241</v>
       </c>
       <c r="C12">
-        <v>1.718593909101287</v>
+        <v>1.751054582134145</v>
       </c>
       <c r="D12">
-        <v>0.3430448478091677</v>
+        <v>0.3420542589566082</v>
       </c>
       <c r="E12">
-        <v>0.7810176386948342</v>
+        <v>0.7739065255912436</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.2869604530648644</v>
+        <v>0.3323636134288392</v>
       </c>
       <c r="H12">
-        <v>0.08027768506632071</v>
+        <v>0.07900605188049781</v>
       </c>
       <c r="I12">
-        <v>0.02015261865733553</v>
+        <v>0.0177617053542054</v>
       </c>
       <c r="J12">
-        <v>0.2003488580891428</v>
+        <v>0.1546056799525033</v>
       </c>
       <c r="K12">
-        <v>0.06488132046630302</v>
+        <v>0.06279351197389804</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.06368242867911655</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.007361466435880537</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1002,48 +1068,54 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0.9797412031718125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.8666214666033909</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.73619202164457</v>
+        <v>5.719505216845846</v>
       </c>
       <c r="C13">
-        <v>1.678961569672992</v>
+        <v>1.697483258594616</v>
       </c>
       <c r="D13">
-        <v>0.3408260206637266</v>
+        <v>0.3398768431975014</v>
       </c>
       <c r="E13">
-        <v>0.4030530640641317</v>
+        <v>0.3974502910326692</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.2355387995722111</v>
+        <v>0.2776126689291232</v>
       </c>
       <c r="H13">
-        <v>0.1330783844543078</v>
+        <v>0.1319379034520267</v>
       </c>
       <c r="I13">
-        <v>0.01923901785030768</v>
+        <v>0.01700412521939665</v>
       </c>
       <c r="J13">
-        <v>0.1746158649884393</v>
+        <v>0.1429788841351751</v>
       </c>
       <c r="K13">
-        <v>0.05791185200737825</v>
+        <v>0.0591197552572007</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.06294583486665384</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.004847369318808248</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1055,48 +1127,54 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.8168006070062148</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.7307395054907033</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.635180932119908</v>
+        <v>5.619745918338879</v>
       </c>
       <c r="C14">
-        <v>1.631641332485685</v>
+        <v>1.641436358674184</v>
       </c>
       <c r="D14">
-        <v>0.3344454076839725</v>
+        <v>0.3335643865057705</v>
       </c>
       <c r="E14">
-        <v>0.2113240704496775</v>
+        <v>0.2067669939897954</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.1995692846246726</v>
+        <v>0.232340815203635</v>
       </c>
       <c r="H14">
-        <v>0.1804794987023683</v>
+        <v>0.1794550338783267</v>
       </c>
       <c r="I14">
-        <v>0.01819727239196922</v>
+        <v>0.01618437771785253</v>
       </c>
       <c r="J14">
-        <v>0.1573140282175771</v>
+        <v>0.1417659823744657</v>
       </c>
       <c r="K14">
-        <v>0.05579413840070035</v>
+        <v>0.05893354743638912</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.06318687583635141</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.003741203528519588</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1108,48 +1186,54 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.7042412663197979</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.64364175132296</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.574275409311554</v>
+        <v>5.559454673469702</v>
       </c>
       <c r="C15">
-        <v>1.612087895315426</v>
+        <v>1.620097977893749</v>
       </c>
       <c r="D15">
-        <v>0.3306143527376832</v>
+        <v>0.3297684225704529</v>
       </c>
       <c r="E15">
-        <v>0.1736194410145053</v>
+        <v>0.1693612957948574</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.1897862594655564</v>
+        <v>0.2175898856437897</v>
       </c>
       <c r="H15">
-        <v>0.1923327901696013</v>
+        <v>0.1913552220132146</v>
       </c>
       <c r="I15">
-        <v>0.01779164489983742</v>
+        <v>0.01590508530149481</v>
       </c>
       <c r="J15">
-        <v>0.1529830206172988</v>
+        <v>0.144197164422259</v>
       </c>
       <c r="K15">
-        <v>0.05603363296847141</v>
+        <v>0.05959105079148957</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.06345131266843262</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.003607450510981103</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1161,48 +1245,54 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.6743913126502719</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.6231276661974192</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.228602430849776</v>
+        <v>5.216673908921734</v>
       </c>
       <c r="C16">
-        <v>1.519813720388527</v>
+        <v>1.530473294056378</v>
       </c>
       <c r="D16">
-        <v>0.3089741889390183</v>
+        <v>0.3082957762075438</v>
       </c>
       <c r="E16">
-        <v>0.1695932194363259</v>
+        <v>0.1659530812933525</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.1820217814160401</v>
+        <v>0.1874725587199109</v>
       </c>
       <c r="H16">
-        <v>0.1771435733441535</v>
+        <v>0.1763585922130346</v>
       </c>
       <c r="I16">
-        <v>0.01556189245342043</v>
+        <v>0.01416136559531722</v>
       </c>
       <c r="J16">
-        <v>0.153301166408383</v>
+        <v>0.171573013929418</v>
       </c>
       <c r="K16">
-        <v>0.06212746846390926</v>
+        <v>0.06571576439896387</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.06541942560866842</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.00455464749208101</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1214,48 +1304,54 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.6583724342861217</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.6351909446880057</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.017735997063141</v>
+        <v>5.007258052837983</v>
       </c>
       <c r="C17">
-        <v>1.474392848815512</v>
+        <v>1.490494394145401</v>
       </c>
       <c r="D17">
-        <v>0.2958489909226927</v>
+        <v>0.2952534367362603</v>
       </c>
       <c r="E17">
-        <v>0.2545670839423693</v>
+        <v>0.2509412461682885</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.1947175618632713</v>
+        <v>0.1897729451804082</v>
       </c>
       <c r="H17">
-        <v>0.1384380651492165</v>
+        <v>0.1377350777847113</v>
       </c>
       <c r="I17">
-        <v>0.01444053422328473</v>
+        <v>0.01328172446364029</v>
       </c>
       <c r="J17">
-        <v>0.1625912438316206</v>
+        <v>0.1929275960053758</v>
       </c>
       <c r="K17">
-        <v>0.06781477412005499</v>
+        <v>0.07086486435470851</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.06729916927875751</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.005727237864875612</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1267,48 +1363,54 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.7046075719838143</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.6885958882975984</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.898494370034825</v>
+        <v>4.88853651350172</v>
       </c>
       <c r="C18">
-        <v>1.459967779948784</v>
+        <v>1.486280413512929</v>
       </c>
       <c r="D18">
-        <v>0.2884587701095853</v>
+        <v>0.2878965847696549</v>
       </c>
       <c r="E18">
-        <v>0.4892513709247979</v>
+        <v>0.4851103961245897</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.229233877511632</v>
+        <v>0.2171408136332431</v>
       </c>
       <c r="H18">
-        <v>0.08634768036776563</v>
+        <v>0.08564571653809594</v>
       </c>
       <c r="I18">
-        <v>0.01388628141921622</v>
+        <v>0.01275941078634979</v>
       </c>
       <c r="J18">
-        <v>0.1818961435536934</v>
+        <v>0.2164833434737972</v>
       </c>
       <c r="K18">
-        <v>0.07523863025076682</v>
+        <v>0.0770010855493064</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.06980476226717602</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.007570963681339027</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1320,48 +1422,54 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.8181428984665473</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.7963662892366443</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.861430256553319</v>
+        <v>4.851199717363215</v>
       </c>
       <c r="C19">
-        <v>1.480706734586818</v>
+        <v>1.520884177795551</v>
       </c>
       <c r="D19">
-        <v>0.2861851188042976</v>
+        <v>0.2856172436711546</v>
       </c>
       <c r="E19">
-        <v>0.9255079241216038</v>
+        <v>0.9203078993238449</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.2795206713459066</v>
+        <v>0.2613114331937965</v>
       </c>
       <c r="H19">
-        <v>0.04393758433301542</v>
+        <v>0.04315512706251923</v>
       </c>
       <c r="I19">
-        <v>0.01434179300799698</v>
+        <v>0.01318776456556403</v>
       </c>
       <c r="J19">
-        <v>0.207866851773602</v>
+        <v>0.2418009537545913</v>
       </c>
       <c r="K19">
-        <v>0.08487147044605159</v>
+        <v>0.08441813603236614</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.07287780233455976</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.0102497057113764</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1373,48 +1481,54 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0.9791377751410266</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.9421657002432227</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.05638883063051</v>
+        <v>5.043594523428908</v>
       </c>
       <c r="C20">
-        <v>1.583984996718584</v>
+        <v>1.648874408833478</v>
       </c>
       <c r="D20">
-        <v>0.2983507436103423</v>
+        <v>0.297666206361896</v>
       </c>
       <c r="E20">
-        <v>1.907146691757944</v>
+        <v>1.898954766696562</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.3770315041107324</v>
+        <v>0.3570526043758946</v>
       </c>
       <c r="H20">
-        <v>0.02709058185836755</v>
+        <v>0.02596718503004736</v>
       </c>
       <c r="I20">
-        <v>0.01690563700907433</v>
+        <v>0.01532638448115708</v>
       </c>
       <c r="J20">
-        <v>0.2540155606748016</v>
+        <v>0.270142732469651</v>
       </c>
       <c r="K20">
-        <v>0.1009360949408293</v>
+        <v>0.09482562483593426</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.0763769811349464</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.01598810073939916</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1426,48 +1540,54 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.282684829102578</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.200659578885052</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.68540150450923</v>
+        <v>5.666465957724711</v>
       </c>
       <c r="C21">
-        <v>1.774488227225277</v>
+        <v>1.841676634784278</v>
       </c>
       <c r="D21">
-        <v>0.3377930857493538</v>
+        <v>0.3367649555311942</v>
       </c>
       <c r="E21">
-        <v>2.238103299317132</v>
+        <v>2.226346272410154</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.4254583913140522</v>
+        <v>0.4665653645328689</v>
       </c>
       <c r="H21">
-        <v>0.03479661176425308</v>
+        <v>0.0331139709459638</v>
       </c>
       <c r="I21">
-        <v>0.02189220659846569</v>
+        <v>0.01927640637809969</v>
       </c>
       <c r="J21">
-        <v>0.2702681626077208</v>
+        <v>0.1989359251427842</v>
       </c>
       <c r="K21">
-        <v>0.09548840592339403</v>
+        <v>0.08294724514151142</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.0698061958400773</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.01688903926621954</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1479,48 +1599,54 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.419797361112131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.24427405563307</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.09672182756492</v>
+        <v>6.073455355482849</v>
       </c>
       <c r="C22">
-        <v>1.891407019577343</v>
+        <v>1.957895886258541</v>
       </c>
       <c r="D22">
-        <v>0.3638302719130166</v>
+        <v>0.3625486243113443</v>
       </c>
       <c r="E22">
-        <v>2.403321426473696</v>
+        <v>2.389207784868688</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.4557270845958072</v>
+        <v>0.5452697864505041</v>
       </c>
       <c r="H22">
-        <v>0.03979648589656737</v>
+        <v>0.03772157474287408</v>
       </c>
       <c r="I22">
-        <v>0.02516522672606403</v>
+        <v>0.02172960564009596</v>
       </c>
       <c r="J22">
-        <v>0.2803153234122391</v>
+        <v>0.1573746632312023</v>
       </c>
       <c r="K22">
-        <v>0.09232168782512318</v>
+        <v>0.07540125705163625</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.06586727982047424</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.01772075429814102</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1532,48 +1658,54 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.505264560513609</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.264187615552686</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.87725823363246</v>
+        <v>5.856459155690857</v>
       </c>
       <c r="C23">
-        <v>1.823293603850232</v>
+        <v>1.892248407588966</v>
       </c>
       <c r="D23">
-        <v>0.349910370300293</v>
+        <v>0.3487763387449689</v>
       </c>
       <c r="E23">
-        <v>2.315088691285723</v>
+        <v>2.302350427759535</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.4414472828609206</v>
+        <v>0.4970045090843769</v>
       </c>
       <c r="H23">
-        <v>0.0371022417212572</v>
+        <v>0.03525532474313842</v>
       </c>
       <c r="I23">
-        <v>0.02315313095874316</v>
+        <v>0.02011659224215023</v>
       </c>
       <c r="J23">
-        <v>0.2759180455926469</v>
+        <v>0.186543712624136</v>
       </c>
       <c r="K23">
-        <v>0.09477423522825212</v>
+        <v>0.08047223179349139</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.06825117320999219</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.01775669311574823</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1585,48 +1717,54 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.465644894181253</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.266775838227431</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.047030597175365</v>
+        <v>5.034212786289174</v>
       </c>
       <c r="C24">
-        <v>1.57592087024392</v>
+        <v>1.642380951105565</v>
       </c>
       <c r="D24">
-        <v>0.2977660513595453</v>
+        <v>0.2970820205683964</v>
       </c>
       <c r="E24">
-        <v>1.983021668090046</v>
+        <v>1.974660227006794</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.3862248613102679</v>
+        <v>0.364934651615556</v>
       </c>
       <c r="H24">
-        <v>0.02758793652710967</v>
+        <v>0.0264493114294102</v>
       </c>
       <c r="I24">
-        <v>0.01655029182545675</v>
+        <v>0.0148631345195902</v>
       </c>
       <c r="J24">
-        <v>0.258740197546885</v>
+        <v>0.2750982365499368</v>
       </c>
       <c r="K24">
-        <v>0.103954256980769</v>
+        <v>0.09725593214817074</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.07732024577165397</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.01689479220317303</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1638,48 +1776,54 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.312065243603598</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.227669130003193</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.152855274663295</v>
+        <v>4.145990960080951</v>
       </c>
       <c r="C25">
-        <v>1.311285496080643</v>
+        <v>1.353791781503617</v>
       </c>
       <c r="D25">
-        <v>0.2425508096052198</v>
+        <v>0.2421574934028854</v>
       </c>
       <c r="E25">
-        <v>1.628456351073353</v>
+        <v>1.623070092304744</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.3305164955057904</v>
+        <v>0.3080199409012607</v>
       </c>
       <c r="H25">
-        <v>0.01860842246154482</v>
+        <v>0.017940757480013</v>
       </c>
       <c r="I25">
-        <v>0.0106425858756225</v>
+        <v>0.009926839334403859</v>
       </c>
       <c r="J25">
-        <v>0.2423763913062231</v>
+        <v>0.2719378185660588</v>
       </c>
       <c r="K25">
-        <v>0.1162121064906252</v>
+        <v>0.1116178843832092</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.08654445311695014</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.01555837353003131</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1691,7 +1835,13 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.159085586652253</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.108231756414568</v>
       </c>
     </row>
   </sheetData>
